--- a/cases/2021sdzyydxfsyy/对标资料库.xlsx
+++ b/cases/2021sdzyydxfsyy/对标资料库.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="医院" sheetId="1" state="visible" r:id="rId2"/>
@@ -105,10 +105,10 @@
     <t xml:space="preserve">均2</t>
   </si>
   <si>
-    <t xml:space="preserve">A院</t>
+    <t xml:space="preserve">某A</t>
   </si>
   <si>
-    <t xml:space="preserve">B院</t>
+    <t xml:space="preserve">某B</t>
   </si>
   <si>
     <t xml:space="preserve">CMI值</t>
@@ -3738,7 +3738,7 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -6552,7 +6552,7 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>

--- a/cases/2021sdzyydxfsyy/对标资料库.xlsx
+++ b/cases/2021sdzyydxfsyy/对标资料库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\山东中医药大学附属医院\F资料库与维度导向库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF5996B-4EF8-4BBD-BE35-7F45C98A1197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8271A608-683D-43B6-94A3-3EE4DCB4C004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5"/>
@@ -11189,11 +11189,11 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -11350,9 +11350,7 @@
       <c r="E7" s="22">
         <v>61.428969121994427</v>
       </c>
-      <c r="F7" s="22">
-        <v>100</v>
-      </c>
+      <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
         <v>100</v>
       </c>
@@ -11898,9 +11896,7 @@
       <c r="E32" s="22">
         <v>122.48936430357141</v>
       </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
+      <c r="F32" s="22"/>
       <c r="G32" s="22" t="s">
         <v>100</v>
       </c>
@@ -12093,9 +12089,7 @@
       <c r="E41" s="22">
         <v>38.571030878005566</v>
       </c>
-      <c r="F41" s="22">
-        <v>0</v>
-      </c>
+      <c r="F41" s="22"/>
       <c r="G41" s="22" t="s">
         <v>100</v>
       </c>
@@ -12112,7 +12106,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
